--- a/Merge_Concat_in_python/vlookup_mergeInPython2.xlsx
+++ b/Merge_Concat_in_python/vlookup_mergeInPython2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanithakkar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanithakkar/Desktop/Learning-DataScience/Merge_Concat_in_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4FEC3D-0D34-264A-A3B6-33189CF46AA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8AB91-A4BA-EC41-888C-744ED30C80ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="5060" windowWidth="27640" windowHeight="15920" xr2:uid="{90DE89D9-5895-5642-86FD-2CBB25B46F38}"/>
+    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="15920" xr2:uid="{90DE89D9-5895-5642-86FD-2CBB25B46F38}"/>
   </bookViews>
   <sheets>
-    <sheet name="uop" sheetId="1" r:id="rId1"/>
+    <sheet name="data2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
